--- a/data_in/data_raw_manually_extracted/human_entered/S_140.xlsx
+++ b/data_in/data_raw_manually_extracted/human_entered/S_140.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pixie/Desktop/Data meeting/Data collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/CHE-MarketData-DataIngest/Shared Documents/Data Ingest/CRB Atlas/data_raw_manually_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58AFC9-C781-3E45-B447-3CBDD728E185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EF58AFC9-C781-3E45-B447-3CBDD728E185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4816C3C8-3822-419E-AED1-064563D80602}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blueprint" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blueprint!$A$1:$AJ$196</definedName>
     <definedName name="Options_2.3Sb">[1]CRCE!$DQ$212:$DQ$219</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -2265,7 +2266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2878,42 +2879,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ198"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R191" sqref="R191"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.77734375" customWidth="1"/>
     <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" customWidth="1"/>
-    <col min="27" max="27" width="8.83203125" customWidth="1"/>
+    <col min="25" max="25" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3018,7 +3020,7 @@
       </c>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="15.6" hidden="1">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="15.6" hidden="1">
       <c r="A3" s="6" t="s">
         <v>85</v>
       </c>
@@ -3092,7 +3094,7 @@
       </c>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="15.6">
       <c r="A4" s="6" t="s">
         <v>89</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="15.6" hidden="1">
       <c r="A5" s="6" t="s">
         <v>90</v>
       </c>
@@ -3132,7 +3134,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="15.6">
       <c r="A6" s="6" t="s">
         <v>91</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="15.6" hidden="1">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -3172,7 +3174,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="15.6" hidden="1">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="15.6" hidden="1">
       <c r="A9" s="6" t="s">
         <v>92</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="15.6" hidden="1">
       <c r="A10" s="6" t="s">
         <v>93</v>
       </c>
@@ -3232,7 +3234,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="15.6" hidden="1">
       <c r="A11" s="6" t="s">
         <v>94</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="15.6" hidden="1">
       <c r="A12" s="6" t="s">
         <v>95</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="15.6">
       <c r="A13" s="6" t="s">
         <v>96</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="15.6" hidden="1">
       <c r="A14" s="6" t="s">
         <v>97</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="15.6" hidden="1">
       <c r="A15" s="6" t="s">
         <v>98</v>
       </c>
@@ -3332,7 +3334,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="15.6">
       <c r="A16" s="6" t="s">
         <v>99</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15.6">
       <c r="A17" s="6" t="s">
         <v>100</v>
       </c>
@@ -3372,7 +3374,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="15.6" hidden="1">
       <c r="A18" s="6" t="s">
         <v>101</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="15.6">
       <c r="A19" s="6" t="s">
         <v>102</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="15.6">
       <c r="A20" s="6" t="s">
         <v>103</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="15.6" hidden="1">
       <c r="A21" s="6" t="s">
         <v>104</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="15.6" hidden="1">
       <c r="A22" s="6" t="s">
         <v>105</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15.6" hidden="1">
       <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="15.6" hidden="1">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
@@ -3512,7 +3514,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="15.6" hidden="1">
       <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="15.6" hidden="1">
       <c r="A26" s="6" t="s">
         <v>109</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="15.6" hidden="1">
       <c r="A27" s="6" t="s">
         <v>110</v>
       </c>
@@ -3572,7 +3574,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="15.6" hidden="1">
       <c r="A28" s="6" t="s">
         <v>111</v>
       </c>
@@ -3592,7 +3594,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="15.6" hidden="1">
       <c r="A29" s="6" t="s">
         <v>112</v>
       </c>
@@ -3612,7 +3614,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="15.6">
       <c r="A30" s="6" t="s">
         <v>113</v>
       </c>
@@ -3632,7 +3634,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="15.6" hidden="1">
       <c r="A31" s="6" t="s">
         <v>114</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="15.6" hidden="1">
       <c r="A32" s="6" t="s">
         <v>115</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="15.6" hidden="1">
       <c r="A33" s="6" t="s">
         <v>116</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="15.6">
       <c r="A34" s="6" t="s">
         <v>117</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="15.6">
       <c r="A35" s="6" t="s">
         <v>118</v>
       </c>
@@ -3732,7 +3734,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="15.6" hidden="1">
       <c r="A36" s="6" t="s">
         <v>119</v>
       </c>
@@ -3752,7 +3754,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="15.6" hidden="1">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="15.6" hidden="1">
       <c r="A38" s="6" t="s">
         <v>121</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="15.6">
       <c r="A39" s="6" t="s">
         <v>122</v>
       </c>
@@ -3812,7 +3814,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="15.6">
       <c r="A40" s="6" t="s">
         <v>123</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="15.6" hidden="1">
       <c r="A41" s="6" t="s">
         <v>124</v>
       </c>
@@ -3852,7 +3854,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="15.6" hidden="1">
       <c r="A42" s="6" t="s">
         <v>125</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="15.6" hidden="1">
       <c r="A43" s="6" t="s">
         <v>126</v>
       </c>
@@ -3892,7 +3894,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="15.6" hidden="1">
       <c r="A44" s="6" t="s">
         <v>127</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="15.6">
       <c r="A45" s="6" t="s">
         <v>128</v>
       </c>
@@ -3932,7 +3934,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="15.6" hidden="1">
       <c r="A46" s="6" t="s">
         <v>129</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="15.6" hidden="1">
       <c r="A47" s="6" t="s">
         <v>130</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="15.6" hidden="1">
       <c r="A48" s="6" t="s">
         <v>131</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="15.6">
       <c r="A49" s="6" t="s">
         <v>132</v>
       </c>
@@ -4012,7 +4014,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="15.6">
       <c r="A50" s="6" t="s">
         <v>133</v>
       </c>
@@ -4032,7 +4034,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="15.6">
       <c r="A51" s="6" t="s">
         <v>134</v>
       </c>
@@ -4052,7 +4054,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="15.6">
       <c r="A52" s="6" t="s">
         <v>135</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="15.6" hidden="1">
       <c r="A53" s="6" t="s">
         <v>136</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="15.6">
       <c r="A54" s="6" t="s">
         <v>137</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="15.6">
       <c r="A55" s="6" t="s">
         <v>138</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="15.6">
       <c r="A56" s="6" t="s">
         <v>139</v>
       </c>
@@ -4152,7 +4154,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="15.6" hidden="1">
       <c r="A57" s="6" t="s">
         <v>140</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="15.6" hidden="1">
       <c r="A58" s="6" t="s">
         <v>141</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="15.6" hidden="1">
       <c r="A59" s="6" t="s">
         <v>142</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="15.6" hidden="1">
       <c r="A60" s="6" t="s">
         <v>143</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="15.6" hidden="1">
       <c r="A61" s="6" t="s">
         <v>144</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="15.6" hidden="1">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="15.6">
       <c r="A63" s="6" t="s">
         <v>146</v>
       </c>
@@ -4292,7 +4294,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="15.6" hidden="1">
       <c r="A64" s="6" t="s">
         <v>147</v>
       </c>
@@ -4312,7 +4314,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="15.6" hidden="1">
       <c r="A65" s="6" t="s">
         <v>148</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="15.6" hidden="1">
       <c r="A66" s="6" t="s">
         <v>149</v>
       </c>
@@ -4352,7 +4354,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="15.6" hidden="1">
       <c r="A67" s="6" t="s">
         <v>150</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="15.6" hidden="1">
       <c r="A68" s="6" t="s">
         <v>151</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="15.6">
       <c r="A69" s="6" t="s">
         <v>152</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="15.6">
       <c r="A70" s="6" t="s">
         <v>153</v>
       </c>
@@ -4432,7 +4434,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="15.6" hidden="1">
       <c r="A71" s="6" t="s">
         <v>154</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="15.6">
       <c r="A72" s="6" t="s">
         <v>155</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="15.6">
       <c r="A73" s="6" t="s">
         <v>156</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="15.6" hidden="1">
       <c r="A74" s="6" t="s">
         <v>157</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="15.6">
       <c r="A75" s="6" t="s">
         <v>158</v>
       </c>
@@ -4532,7 +4534,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="15.6" hidden="1">
       <c r="A76" s="6" t="s">
         <v>159</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="15.6" hidden="1">
       <c r="A77" s="6" t="s">
         <v>160</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="15.6" hidden="1">
       <c r="A78" s="6" t="s">
         <v>161</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="15.6" hidden="1">
       <c r="A79" s="6" t="s">
         <v>162</v>
       </c>
@@ -4612,7 +4614,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="15.6" hidden="1">
       <c r="A80" s="6" t="s">
         <v>163</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="15.6" hidden="1">
       <c r="A81" s="6" t="s">
         <v>164</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="15.6" hidden="1">
       <c r="A82" s="6" t="s">
         <v>165</v>
       </c>
@@ -4672,7 +4674,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="15.6" hidden="1">
       <c r="A83" s="6" t="s">
         <v>166</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="15.6" hidden="1">
       <c r="A84" s="6" t="s">
         <v>167</v>
       </c>
@@ -4712,7 +4714,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="15.6">
       <c r="A85" s="6" t="s">
         <v>168</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="15.6" hidden="1">
       <c r="A86" s="6" t="s">
         <v>169</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="15.6" hidden="1">
       <c r="A87" s="6" t="s">
         <v>170</v>
       </c>
@@ -4772,7 +4774,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" ht="15.6" hidden="1">
       <c r="A88" s="6" t="s">
         <v>171</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="15.6" hidden="1">
       <c r="A89" s="6" t="s">
         <v>172</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="15.6">
       <c r="A90" s="6" t="s">
         <v>173</v>
       </c>
@@ -4832,7 +4834,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="15.6">
       <c r="A91" s="6" t="s">
         <v>174</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="27.6" hidden="1">
       <c r="A92" s="6" t="s">
         <v>175</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" ht="15.6">
       <c r="A93" s="6" t="s">
         <v>459</v>
       </c>
@@ -4892,7 +4894,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="15.6" hidden="1">
       <c r="A94" s="6" t="s">
         <v>177</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="15.6" hidden="1">
       <c r="A95" s="6" t="s">
         <v>178</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="15.6" hidden="1">
       <c r="A96" s="6" t="s">
         <v>179</v>
       </c>
@@ -4952,7 +4954,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="15.6" hidden="1">
       <c r="A97" s="6" t="s">
         <v>180</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="15.6" hidden="1">
       <c r="A98" s="6" t="s">
         <v>181</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="15.6" hidden="1">
       <c r="A99" s="6" t="s">
         <v>182</v>
       </c>
@@ -5012,7 +5014,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="15.6" hidden="1">
       <c r="A100" s="6" t="s">
         <v>183</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="15.6">
       <c r="A101" s="6" t="s">
         <v>184</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="15.6" hidden="1">
       <c r="A102" s="6" t="s">
         <v>185</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="15.6" hidden="1">
       <c r="A103" s="6" t="s">
         <v>186</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="15.6" hidden="1">
       <c r="A104" s="6" t="s">
         <v>187</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="15.6" hidden="1">
       <c r="A105" s="6" t="s">
         <v>188</v>
       </c>
@@ -5132,7 +5134,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="15.6" hidden="1">
       <c r="A106" s="6" t="s">
         <v>189</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="15.6" hidden="1">
       <c r="A107" s="6" t="s">
         <v>190</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="15.6">
       <c r="A108" s="6" t="s">
         <v>191</v>
       </c>
@@ -5192,7 +5194,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="15.6" hidden="1">
       <c r="A109" s="6" t="s">
         <v>192</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="15.6">
       <c r="A110" s="6" t="s">
         <v>193</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="15.6" hidden="1">
       <c r="A111" s="6" t="s">
         <v>194</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="15.6">
       <c r="A112" s="6" t="s">
         <v>195</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="15.6" hidden="1">
       <c r="A113" s="6" t="s">
         <v>196</v>
       </c>
@@ -5292,7 +5294,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="15.6" hidden="1">
       <c r="A114" s="6" t="s">
         <v>197</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="15.6">
       <c r="A115" s="6" t="s">
         <v>198</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="15.6">
       <c r="A116" s="6" t="s">
         <v>199</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="15.6" hidden="1">
       <c r="A117" s="6" t="s">
         <v>200</v>
       </c>
@@ -5372,7 +5374,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="15.6">
       <c r="A118" s="6" t="s">
         <v>201</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="15.6" hidden="1">
       <c r="A119" s="6" t="s">
         <v>202</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="15.6" hidden="1">
       <c r="A120" s="6" t="s">
         <v>203</v>
       </c>
@@ -5432,7 +5434,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="15.6">
       <c r="A121" s="6" t="s">
         <v>204</v>
       </c>
@@ -5452,7 +5454,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="15.6" hidden="1">
       <c r="A122" s="6" t="s">
         <v>205</v>
       </c>
@@ -5472,7 +5474,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="15.6" hidden="1">
       <c r="A123" s="6" t="s">
         <v>206</v>
       </c>
@@ -5492,7 +5494,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="15.6" hidden="1">
       <c r="A124" s="6" t="s">
         <v>207</v>
       </c>
@@ -5512,7 +5514,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="15.6">
       <c r="A125" s="6" t="s">
         <v>208</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="15.6" hidden="1">
       <c r="A126" s="6" t="s">
         <v>209</v>
       </c>
@@ -5552,7 +5554,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="15.6" hidden="1">
       <c r="A127" s="6" t="s">
         <v>210</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="15.6" hidden="1">
       <c r="A128" s="6" t="s">
         <v>211</v>
       </c>
@@ -5592,7 +5594,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="15.6" hidden="1">
       <c r="A129" s="6" t="s">
         <v>212</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="15.6">
       <c r="A130" s="6" t="s">
         <v>213</v>
       </c>
@@ -5632,7 +5634,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="15.6" hidden="1">
       <c r="A131" s="6" t="s">
         <v>214</v>
       </c>
@@ -5652,7 +5654,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="15.6" hidden="1">
       <c r="A132" s="6" t="s">
         <v>215</v>
       </c>
@@ -5672,7 +5674,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="15.6" hidden="1">
       <c r="A133" s="6" t="s">
         <v>216</v>
       </c>
@@ -5692,7 +5694,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="15.6" hidden="1">
       <c r="A134" s="6" t="s">
         <v>217</v>
       </c>
@@ -5712,7 +5714,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="15.6">
       <c r="A135" s="6" t="s">
         <v>218</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="15.6" hidden="1">
       <c r="A136" s="6" t="s">
         <v>219</v>
       </c>
@@ -5752,7 +5754,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="15.6">
       <c r="A137" s="6" t="s">
         <v>220</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="15.6" hidden="1">
       <c r="A138" s="6" t="s">
         <v>221</v>
       </c>
@@ -5792,7 +5794,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="15.6" hidden="1">
       <c r="A139" s="6" t="s">
         <v>222</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="15.6" hidden="1">
       <c r="A140" s="6" t="s">
         <v>223</v>
       </c>
@@ -5832,7 +5834,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="15.6" hidden="1">
       <c r="A141" s="6" t="s">
         <v>224</v>
       </c>
@@ -5852,7 +5854,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="15.6" hidden="1">
       <c r="A142" s="6" t="s">
         <v>225</v>
       </c>
@@ -5872,7 +5874,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="15.6" hidden="1">
       <c r="A143" s="6" t="s">
         <v>226</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="15.6">
       <c r="A144" s="6" t="s">
         <v>227</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="15.6" hidden="1">
       <c r="A145" s="6" t="s">
         <v>228</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="15.6" hidden="1">
       <c r="A146" s="6" t="s">
         <v>229</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="15.6">
       <c r="A147" s="6" t="s">
         <v>230</v>
       </c>
@@ -5972,7 +5974,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" ht="15.6" hidden="1">
       <c r="A148" s="6" t="s">
         <v>231</v>
       </c>
@@ -5992,7 +5994,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" ht="15.6">
       <c r="A149" s="6" t="s">
         <v>232</v>
       </c>
@@ -6012,7 +6014,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="15.6">
       <c r="A150" s="6" t="s">
         <v>233</v>
       </c>
@@ -6032,7 +6034,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" ht="15.6">
       <c r="A151" s="6" t="s">
         <v>234</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" ht="15.6">
       <c r="A152" s="6" t="s">
         <v>235</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" ht="15.6">
       <c r="A153" s="6" t="s">
         <v>236</v>
       </c>
@@ -6092,7 +6094,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" ht="15.6">
       <c r="A154" s="6" t="s">
         <v>237</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" ht="15.6" hidden="1">
       <c r="A155" s="6" t="s">
         <v>238</v>
       </c>
@@ -6132,7 +6134,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" ht="15.6" hidden="1">
       <c r="A156" s="6" t="s">
         <v>239</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" ht="15.6">
       <c r="A157" s="6" t="s">
         <v>240</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" ht="15.6" hidden="1">
       <c r="A158" s="6" t="s">
         <v>241</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="15.6" hidden="1">
       <c r="A159" s="6" t="s">
         <v>242</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" ht="15.6" hidden="1">
       <c r="A160" s="6" t="s">
         <v>243</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" ht="15.6" hidden="1">
       <c r="A161" s="6" t="s">
         <v>244</v>
       </c>
@@ -6252,7 +6254,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" ht="15.6">
       <c r="A162" s="6" t="s">
         <v>245</v>
       </c>
@@ -6272,7 +6274,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" ht="15.6">
       <c r="A163" s="6" t="s">
         <v>246</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="15.6" hidden="1">
       <c r="A164" s="6" t="s">
         <v>247</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" ht="15.6" hidden="1">
       <c r="A165" s="6" t="s">
         <v>248</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" ht="15.6" hidden="1">
       <c r="A166" s="6" t="s">
         <v>249</v>
       </c>
@@ -6352,7 +6354,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" ht="15.6" hidden="1">
       <c r="A167" s="6" t="s">
         <v>250</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" ht="15.6">
       <c r="A168" s="6" t="s">
         <v>251</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" ht="15.6" hidden="1">
       <c r="A169" s="6" t="s">
         <v>252</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" ht="15.6" hidden="1">
       <c r="A170" s="6" t="s">
         <v>253</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" ht="15.6" hidden="1">
       <c r="A171" s="6" t="s">
         <v>254</v>
       </c>
@@ -6452,7 +6454,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" ht="15.6">
       <c r="A172" s="6" t="s">
         <v>255</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" ht="15.6" hidden="1">
       <c r="A173" s="6" t="s">
         <v>256</v>
       </c>
@@ -6492,7 +6494,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" ht="15.6" hidden="1">
       <c r="A174" s="6" t="s">
         <v>257</v>
       </c>
@@ -6512,7 +6514,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" ht="15.6" hidden="1">
       <c r="A175" s="6" t="s">
         <v>258</v>
       </c>
@@ -6532,7 +6534,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" ht="15.6">
       <c r="A176" s="6" t="s">
         <v>259</v>
       </c>
@@ -6552,7 +6554,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" ht="15.6" hidden="1">
       <c r="A177" s="6" t="s">
         <v>260</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" ht="15.6">
       <c r="A178" s="6" t="s">
         <v>261</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" ht="15.6" hidden="1">
       <c r="A179" s="6" t="s">
         <v>262</v>
       </c>
@@ -6612,7 +6614,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" ht="15.6">
       <c r="A180" s="6" t="s">
         <v>263</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" ht="15.6" hidden="1">
       <c r="A181" s="6" t="s">
         <v>264</v>
       </c>
@@ -6652,7 +6654,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" ht="15.6">
       <c r="A182" s="6" t="s">
         <v>265</v>
       </c>
@@ -6672,7 +6674,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" ht="15.6">
       <c r="A183" s="6" t="s">
         <v>266</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" ht="15.6" hidden="1">
       <c r="A184" s="6" t="s">
         <v>267</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" ht="15.6" hidden="1">
       <c r="A185" s="6" t="s">
         <v>268</v>
       </c>
@@ -6732,7 +6734,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" ht="15.6">
       <c r="A186" s="6" t="s">
         <v>269</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" ht="15.6" hidden="1">
       <c r="A187" s="6" t="s">
         <v>270</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" ht="15.6" hidden="1">
       <c r="A188" s="6" t="s">
         <v>271</v>
       </c>
@@ -6792,7 +6794,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" ht="15.6" hidden="1">
       <c r="A189" s="6" t="s">
         <v>272</v>
       </c>
@@ -6812,7 +6814,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" ht="15.6" hidden="1">
       <c r="A190" s="6" t="s">
         <v>273</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" ht="15.6" hidden="1">
       <c r="A191" s="6" t="s">
         <v>274</v>
       </c>
@@ -6852,7 +6854,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" ht="15.6">
       <c r="A192" s="6" t="s">
         <v>275</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" ht="15.6" hidden="1">
       <c r="A193" s="6" t="s">
         <v>276</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" ht="15.6">
       <c r="A194" s="6" t="s">
         <v>277</v>
       </c>
@@ -6912,7 +6914,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" ht="15.6" hidden="1">
       <c r="A195" s="6" t="s">
         <v>278</v>
       </c>
@@ -6932,7 +6934,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" ht="15.6" hidden="1">
       <c r="A196" s="6" t="s">
         <v>279</v>
       </c>
@@ -6952,13 +6954,20 @@
         <v>732</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20">
       <c r="S197" s="14"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20">
       <c r="S198" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ196" xr:uid="{D3F371F4-4800-4D78-8F0F-2AD5DECDFC8E}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="No child helpline linked to the Child Helpline Network"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6972,24 +6981,24 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="89.1640625" customWidth="1"/>
-    <col min="20" max="20" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="89.109375" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7063,7 +7072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -7074,7 +7083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -7094,7 +7103,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -7114,7 +7123,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -7134,7 +7143,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -7145,7 +7154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -7165,7 +7174,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -7185,7 +7194,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -7205,7 +7214,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -7216,7 +7225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7227,7 +7236,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -7238,7 +7247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -7258,7 +7267,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -7298,7 +7307,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -7318,7 +7327,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -7338,7 +7347,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -7358,7 +7367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -7369,7 +7378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -7380,7 +7389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -7391,7 +7400,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -7402,7 +7411,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -7422,7 +7431,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -7442,7 +7451,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -7462,7 +7471,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -7473,7 +7482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -7484,7 +7493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -7495,7 +7504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -7515,7 +7524,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -7535,7 +7544,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -7555,7 +7564,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -7566,7 +7575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -7577,7 +7586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -7597,7 +7606,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -7617,7 +7626,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -7637,7 +7646,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -7657,7 +7666,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -7677,7 +7686,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -7697,7 +7706,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -7717,7 +7726,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -7737,7 +7746,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -7757,7 +7766,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -7777,7 +7786,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -7797,7 +7806,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -7837,7 +7846,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -7857,7 +7866,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -7877,7 +7886,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -7888,7 +7897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -7908,7 +7917,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -7928,7 +7937,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -7948,7 +7957,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -7959,7 +7968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -7979,7 +7988,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -7999,7 +8008,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -8019,7 +8028,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -8039,7 +8048,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -8059,7 +8068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -8079,7 +8088,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -8099,7 +8108,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -8119,7 +8128,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -8139,7 +8148,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -8159,7 +8168,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -8179,7 +8188,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -8199,7 +8208,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -8210,7 +8219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -8230,7 +8239,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -8250,7 +8259,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -8270,7 +8279,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -8290,7 +8299,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -8330,7 +8339,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -8341,7 +8350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -8361,7 +8370,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -8381,7 +8390,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -8401,7 +8410,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -8412,7 +8421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -8423,7 +8432,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -8434,7 +8443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -8454,7 +8463,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -8474,7 +8483,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -8494,7 +8503,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -8505,7 +8514,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -8525,7 +8534,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -8545,7 +8554,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -8565,7 +8574,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -8576,7 +8585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -8587,7 +8596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -8607,7 +8616,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>130</v>
       </c>
@@ -8627,7 +8636,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -8647,7 +8656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -8658,7 +8667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -8669,7 +8678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -8680,7 +8689,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>134</v>
       </c>
@@ -8700,7 +8709,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>134</v>
       </c>
@@ -8720,7 +8729,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -8740,7 +8749,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>135</v>
       </c>
@@ -8760,7 +8769,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -8780,7 +8789,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -8800,7 +8809,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -8820,7 +8829,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>136</v>
       </c>
@@ -8840,7 +8849,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -8860,7 +8869,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -8871,7 +8880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -8882,7 +8891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -8893,7 +8902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -8904,7 +8913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -8924,7 +8933,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>141</v>
       </c>
@@ -8944,7 +8953,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>141</v>
       </c>
@@ -8964,7 +8973,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>142</v>
       </c>
@@ -8975,7 +8984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>143</v>
       </c>
@@ -8986,7 +8995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -8997,7 +9006,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>145</v>
       </c>
@@ -9008,7 +9017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -9019,7 +9028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -9039,7 +9048,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>147</v>
       </c>
@@ -9059,7 +9068,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -9079,7 +9088,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>148</v>
       </c>
@@ -9099,7 +9108,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>148</v>
       </c>
@@ -9119,7 +9128,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>148</v>
       </c>
@@ -9139,7 +9148,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -9159,7 +9168,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -9179,7 +9188,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -9199,7 +9208,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>150</v>
       </c>
@@ -9219,7 +9228,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>150</v>
       </c>
@@ -9239,7 +9248,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>150</v>
       </c>
@@ -9259,7 +9268,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>151</v>
       </c>
@@ -9279,7 +9288,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>151</v>
       </c>
@@ -9299,7 +9308,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -9319,7 +9328,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -9330,7 +9339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>153</v>
       </c>
@@ -9350,7 +9359,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>153</v>
       </c>
@@ -9370,7 +9379,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -9390,7 +9399,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -9401,7 +9410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -9412,7 +9421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -9432,7 +9441,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>156</v>
       </c>
@@ -9452,7 +9461,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -9472,7 +9481,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -9483,7 +9492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -9503,7 +9512,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -9523,7 +9532,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -9543,7 +9552,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>159</v>
       </c>
@@ -9563,7 +9572,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -9583,7 +9592,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -9603,7 +9612,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -9614,7 +9623,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -9625,7 +9634,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -9645,7 +9654,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -9665,7 +9674,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -9685,7 +9694,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -9696,7 +9705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -9716,7 +9725,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -9736,7 +9745,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>164</v>
       </c>
@@ -9756,7 +9765,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -9767,7 +9776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>166</v>
       </c>
@@ -9787,7 +9796,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -9807,7 +9816,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -9827,7 +9836,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -9847,7 +9856,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -9867,7 +9876,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -9887,7 +9896,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -9898,7 +9907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -9918,7 +9927,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -9938,7 +9947,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -9958,7 +9967,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -9978,7 +9987,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -9998,7 +10007,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -10018,7 +10027,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -10038,7 +10047,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -10058,7 +10067,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -10078,7 +10087,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -10098,7 +10107,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -10118,7 +10127,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -10138,7 +10147,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -10149,7 +10158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -10160,7 +10169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -10180,7 +10189,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -10200,7 +10209,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -10220,7 +10229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>176</v>
       </c>
@@ -10231,7 +10240,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -10242,7 +10251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -10262,7 +10271,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>178</v>
       </c>
@@ -10282,7 +10291,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>178</v>
       </c>
@@ -10302,7 +10311,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>179</v>
       </c>
@@ -10322,7 +10331,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>179</v>
       </c>
@@ -10342,7 +10351,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>179</v>
       </c>
@@ -10362,7 +10371,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>180</v>
       </c>
@@ -10373,7 +10382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>181</v>
       </c>
@@ -10384,7 +10393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>182</v>
       </c>
@@ -10395,7 +10404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>183</v>
       </c>
@@ -10415,7 +10424,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -10435,7 +10444,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -10455,7 +10464,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -10466,7 +10475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -10477,7 +10486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -10497,7 +10506,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20">
       <c r="A198" t="s">
         <v>186</v>
       </c>
@@ -10517,7 +10526,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -10537,7 +10546,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20">
       <c r="A200" t="s">
         <v>187</v>
       </c>
@@ -10557,7 +10566,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20">
       <c r="A201" t="s">
         <v>187</v>
       </c>
@@ -10577,7 +10586,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20">
       <c r="A202" t="s">
         <v>187</v>
       </c>
@@ -10597,7 +10606,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20">
       <c r="A203" t="s">
         <v>188</v>
       </c>
@@ -10617,7 +10626,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20">
       <c r="A204" t="s">
         <v>188</v>
       </c>
@@ -10637,7 +10646,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20">
       <c r="A205" t="s">
         <v>188</v>
       </c>
@@ -10657,7 +10666,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20">
       <c r="A206" t="s">
         <v>189</v>
       </c>
@@ -10677,7 +10686,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20">
       <c r="A207" t="s">
         <v>189</v>
       </c>
@@ -10697,7 +10706,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20">
       <c r="A208" t="s">
         <v>189</v>
       </c>
@@ -10717,7 +10726,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20">
       <c r="A209" t="s">
         <v>190</v>
       </c>
@@ -10737,7 +10746,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20">
       <c r="A210" t="s">
         <v>190</v>
       </c>
@@ -10757,7 +10766,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20">
       <c r="A211" t="s">
         <v>190</v>
       </c>
@@ -10777,7 +10786,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20">
       <c r="A212" t="s">
         <v>191</v>
       </c>
@@ -10797,7 +10806,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20">
       <c r="A213" t="s">
         <v>191</v>
       </c>
@@ -10817,7 +10826,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20">
       <c r="A214" t="s">
         <v>191</v>
       </c>
@@ -10837,7 +10846,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20">
       <c r="A215" t="s">
         <v>192</v>
       </c>
@@ -10848,7 +10857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20">
       <c r="A216" t="s">
         <v>193</v>
       </c>
@@ -10868,7 +10877,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20">
       <c r="A217" t="s">
         <v>193</v>
       </c>
@@ -10888,7 +10897,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20">
       <c r="A218" t="s">
         <v>193</v>
       </c>
@@ -10908,7 +10917,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20">
       <c r="A219" t="s">
         <v>194</v>
       </c>
@@ -10928,7 +10937,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20">
       <c r="A220" t="s">
         <v>194</v>
       </c>
@@ -10948,7 +10957,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20">
       <c r="A221" t="s">
         <v>194</v>
       </c>
@@ -10968,7 +10977,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20">
       <c r="A222" t="s">
         <v>195</v>
       </c>
@@ -10979,7 +10988,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20">
       <c r="A223" t="s">
         <v>196</v>
       </c>
@@ -10999,7 +11008,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20">
       <c r="A224" t="s">
         <v>196</v>
       </c>
@@ -11019,7 +11028,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20">
       <c r="A225" t="s">
         <v>196</v>
       </c>
@@ -11039,7 +11048,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20">
       <c r="A226" t="s">
         <v>197</v>
       </c>
@@ -11059,7 +11068,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20">
       <c r="A227" t="s">
         <v>197</v>
       </c>
@@ -11079,7 +11088,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20">
       <c r="A228" t="s">
         <v>197</v>
       </c>
@@ -11099,7 +11108,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20">
       <c r="A229" t="s">
         <v>198</v>
       </c>
@@ -11119,7 +11128,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20">
       <c r="A230" t="s">
         <v>198</v>
       </c>
@@ -11139,7 +11148,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20">
       <c r="A231" t="s">
         <v>198</v>
       </c>
@@ -11159,7 +11168,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20">
       <c r="A232" t="s">
         <v>199</v>
       </c>
@@ -11179,7 +11188,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20">
       <c r="A233" t="s">
         <v>199</v>
       </c>
@@ -11199,7 +11208,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20">
       <c r="A234" t="s">
         <v>199</v>
       </c>
@@ -11219,7 +11228,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20">
       <c r="A235" t="s">
         <v>200</v>
       </c>
@@ -11239,7 +11248,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20">
       <c r="A236" t="s">
         <v>200</v>
       </c>
@@ -11259,7 +11268,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20">
       <c r="A237" t="s">
         <v>200</v>
       </c>
@@ -11279,7 +11288,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20">
       <c r="A238" t="s">
         <v>201</v>
       </c>
@@ -11290,7 +11299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20">
       <c r="A239" t="s">
         <v>202</v>
       </c>
@@ -11310,7 +11319,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20">
       <c r="A240" t="s">
         <v>202</v>
       </c>
@@ -11330,7 +11339,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20">
       <c r="A241" t="s">
         <v>202</v>
       </c>
@@ -11350,7 +11359,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20">
       <c r="A242" t="s">
         <v>203</v>
       </c>
@@ -11370,7 +11379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20">
       <c r="A243" t="s">
         <v>203</v>
       </c>
@@ -11390,7 +11399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20">
       <c r="A244" t="s">
         <v>203</v>
       </c>
@@ -11410,7 +11419,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20">
       <c r="A245" t="s">
         <v>204</v>
       </c>
@@ -11421,7 +11430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20">
       <c r="A246" t="s">
         <v>205</v>
       </c>
@@ -11441,7 +11450,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20">
       <c r="A247" t="s">
         <v>205</v>
       </c>
@@ -11461,7 +11470,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20">
       <c r="A248" t="s">
         <v>205</v>
       </c>
@@ -11481,7 +11490,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20">
       <c r="A249" t="s">
         <v>206</v>
       </c>
@@ -11501,7 +11510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20">
       <c r="A250" t="s">
         <v>206</v>
       </c>
@@ -11521,7 +11530,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20">
       <c r="A251" t="s">
         <v>206</v>
       </c>
@@ -11541,7 +11550,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20">
       <c r="A252" t="s">
         <v>207</v>
       </c>
@@ -11561,7 +11570,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20">
       <c r="A253" t="s">
         <v>207</v>
       </c>
@@ -11581,7 +11590,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20">
       <c r="A254" t="s">
         <v>207</v>
       </c>
@@ -11601,7 +11610,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20">
       <c r="A255" t="s">
         <v>208</v>
       </c>
@@ -11612,7 +11621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20">
       <c r="A256" t="s">
         <v>209</v>
       </c>
@@ -11632,7 +11641,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20">
       <c r="A257" t="s">
         <v>209</v>
       </c>
@@ -11652,7 +11661,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20">
       <c r="A258" t="s">
         <v>209</v>
       </c>
@@ -11672,7 +11681,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20">
       <c r="A259" t="s">
         <v>210</v>
       </c>
@@ -11683,7 +11692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20">
       <c r="A260" t="s">
         <v>211</v>
       </c>
@@ -11703,7 +11712,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20">
       <c r="A261" t="s">
         <v>211</v>
       </c>
@@ -11723,7 +11732,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20">
       <c r="A262" t="s">
         <v>211</v>
       </c>
@@ -11743,7 +11752,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20">
       <c r="A263" t="s">
         <v>212</v>
       </c>
@@ -11763,7 +11772,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20">
       <c r="A264" t="s">
         <v>212</v>
       </c>
@@ -11783,7 +11792,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20">
       <c r="A265" t="s">
         <v>212</v>
       </c>
@@ -11803,7 +11812,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20">
       <c r="A266" t="s">
         <v>213</v>
       </c>
@@ -11823,7 +11832,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20">
       <c r="A267" t="s">
         <v>213</v>
       </c>
@@ -11843,7 +11852,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20">
       <c r="A268" t="s">
         <v>213</v>
       </c>
@@ -11863,7 +11872,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20">
       <c r="A269" t="s">
         <v>214</v>
       </c>
@@ -11883,7 +11892,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20">
       <c r="A270" t="s">
         <v>214</v>
       </c>
@@ -11903,7 +11912,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20">
       <c r="A271" t="s">
         <v>214</v>
       </c>
@@ -11923,7 +11932,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20">
       <c r="A272" t="s">
         <v>215</v>
       </c>
@@ -11943,7 +11952,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20">
       <c r="A273" t="s">
         <v>215</v>
       </c>
@@ -11963,7 +11972,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20">
       <c r="A274" t="s">
         <v>215</v>
       </c>
@@ -11983,7 +11992,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20">
       <c r="A275" t="s">
         <v>216</v>
       </c>
@@ -11994,7 +12003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20">
       <c r="A276" t="s">
         <v>217</v>
       </c>
@@ -12005,7 +12014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20">
       <c r="A277" t="s">
         <v>218</v>
       </c>
@@ -12025,7 +12034,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20">
       <c r="A278" t="s">
         <v>218</v>
       </c>
@@ -12045,7 +12054,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20">
       <c r="A279" t="s">
         <v>218</v>
       </c>
@@ -12065,7 +12074,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20">
       <c r="A280" t="s">
         <v>219</v>
       </c>
@@ -12085,7 +12094,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20">
       <c r="A281" t="s">
         <v>219</v>
       </c>
@@ -12105,7 +12114,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20">
       <c r="A282" t="s">
         <v>219</v>
       </c>
@@ -12125,7 +12134,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20">
       <c r="A283" t="s">
         <v>220</v>
       </c>
@@ -12145,7 +12154,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20">
       <c r="A284" t="s">
         <v>220</v>
       </c>
@@ -12165,7 +12174,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20">
       <c r="A285" t="s">
         <v>220</v>
       </c>
@@ -12185,7 +12194,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20">
       <c r="A286" t="s">
         <v>221</v>
       </c>
@@ -12196,7 +12205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20">
       <c r="A287" t="s">
         <v>222</v>
       </c>
@@ -12216,7 +12225,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20">
       <c r="A288" t="s">
         <v>222</v>
       </c>
@@ -12236,7 +12245,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20">
       <c r="A289" t="s">
         <v>222</v>
       </c>
@@ -12256,7 +12265,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20">
       <c r="A290" t="s">
         <v>223</v>
       </c>
@@ -12276,7 +12285,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20">
       <c r="A291" t="s">
         <v>223</v>
       </c>
@@ -12296,7 +12305,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20">
       <c r="A292" t="s">
         <v>223</v>
       </c>
@@ -12316,7 +12325,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20">
       <c r="A293" t="s">
         <v>224</v>
       </c>
@@ -12327,7 +12336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20">
       <c r="A294" t="s">
         <v>225</v>
       </c>
@@ -12347,7 +12356,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20">
       <c r="A295" t="s">
         <v>225</v>
       </c>
@@ -12367,7 +12376,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20">
       <c r="A296" t="s">
         <v>225</v>
       </c>
@@ -12387,7 +12396,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20">
       <c r="A297" t="s">
         <v>226</v>
       </c>
@@ -12407,7 +12416,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20">
       <c r="A298" t="s">
         <v>226</v>
       </c>
@@ -12427,7 +12436,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20">
       <c r="A299" t="s">
         <v>226</v>
       </c>
@@ -12447,7 +12456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20">
       <c r="A300" t="s">
         <v>227</v>
       </c>
@@ -12467,7 +12476,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20">
       <c r="A301" t="s">
         <v>227</v>
       </c>
@@ -12487,7 +12496,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20">
       <c r="A302" t="s">
         <v>227</v>
       </c>
@@ -12507,7 +12516,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20">
       <c r="A303" t="s">
         <v>228</v>
       </c>
@@ -12527,7 +12536,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20">
       <c r="A304" t="s">
         <v>228</v>
       </c>
@@ -12547,7 +12556,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20">
       <c r="A305" t="s">
         <v>228</v>
       </c>
@@ -12567,7 +12576,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20">
       <c r="A306" t="s">
         <v>229</v>
       </c>
@@ -12587,7 +12596,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20">
       <c r="A307" t="s">
         <v>229</v>
       </c>
@@ -12607,7 +12616,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20">
       <c r="A308" t="s">
         <v>229</v>
       </c>
@@ -12627,7 +12636,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20">
       <c r="A309" t="s">
         <v>230</v>
       </c>
@@ -12647,7 +12656,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20">
       <c r="A310" t="s">
         <v>230</v>
       </c>
@@ -12667,7 +12676,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20">
       <c r="A311" t="s">
         <v>230</v>
       </c>
@@ -12687,7 +12696,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20">
       <c r="A312" t="s">
         <v>231</v>
       </c>
@@ -12698,7 +12707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20">
       <c r="A313" t="s">
         <v>232</v>
       </c>
@@ -12718,7 +12727,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20">
       <c r="A314" t="s">
         <v>232</v>
       </c>
@@ -12738,7 +12747,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20">
       <c r="A315" t="s">
         <v>232</v>
       </c>
@@ -12758,7 +12767,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20">
       <c r="A316" t="s">
         <v>233</v>
       </c>
@@ -12769,7 +12778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20">
       <c r="A317" t="s">
         <v>234</v>
       </c>
@@ -12789,7 +12798,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20">
       <c r="A318" t="s">
         <v>234</v>
       </c>
@@ -12809,7 +12818,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20">
       <c r="A319" t="s">
         <v>234</v>
       </c>
@@ -12829,7 +12838,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20">
       <c r="A320" t="s">
         <v>235</v>
       </c>
@@ -12840,7 +12849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20">
       <c r="A321" t="s">
         <v>236</v>
       </c>
@@ -12851,7 +12860,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20">
       <c r="A322" t="s">
         <v>237</v>
       </c>
@@ -12871,7 +12880,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20">
       <c r="A323" t="s">
         <v>237</v>
       </c>
@@ -12891,7 +12900,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20">
       <c r="A324" t="s">
         <v>237</v>
       </c>
@@ -12911,7 +12920,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20">
       <c r="A325" t="s">
         <v>238</v>
       </c>
@@ -12922,7 +12931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20">
       <c r="A326" t="s">
         <v>239</v>
       </c>
@@ -12942,7 +12951,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20">
       <c r="A327" t="s">
         <v>239</v>
       </c>
@@ -12962,7 +12971,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20">
       <c r="A328" t="s">
         <v>239</v>
       </c>
@@ -12982,7 +12991,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20">
       <c r="A329" t="s">
         <v>240</v>
       </c>
@@ -13002,7 +13011,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20">
       <c r="A330" t="s">
         <v>240</v>
       </c>
@@ -13022,7 +13031,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20">
       <c r="A331" t="s">
         <v>240</v>
       </c>
@@ -13042,7 +13051,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20">
       <c r="A332" t="s">
         <v>241</v>
       </c>
@@ -13053,7 +13062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20">
       <c r="A333" t="s">
         <v>242</v>
       </c>
@@ -13073,7 +13082,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20">
       <c r="A334" t="s">
         <v>242</v>
       </c>
@@ -13093,7 +13102,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20">
       <c r="A335" t="s">
         <v>242</v>
       </c>
@@ -13113,7 +13122,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20">
       <c r="A336" t="s">
         <v>243</v>
       </c>
@@ -13133,7 +13142,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20">
       <c r="A337" t="s">
         <v>243</v>
       </c>
@@ -13153,7 +13162,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20">
       <c r="A338" t="s">
         <v>243</v>
       </c>
@@ -13173,7 +13182,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20">
       <c r="A339" t="s">
         <v>244</v>
       </c>
@@ -13193,7 +13202,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20">
       <c r="A340" t="s">
         <v>244</v>
       </c>
@@ -13213,7 +13222,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20">
       <c r="A341" t="s">
         <v>244</v>
       </c>
@@ -13233,7 +13242,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20">
       <c r="A342" t="s">
         <v>245</v>
       </c>
@@ -13244,7 +13253,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20">
       <c r="A343" t="s">
         <v>246</v>
       </c>
@@ -13255,7 +13264,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20">
       <c r="A344" t="s">
         <v>247</v>
       </c>
@@ -13275,7 +13284,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20">
       <c r="A345" t="s">
         <v>247</v>
       </c>
@@ -13295,7 +13304,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20">
       <c r="A346" t="s">
         <v>247</v>
       </c>
@@ -13315,7 +13324,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20">
       <c r="A347" t="s">
         <v>248</v>
       </c>
@@ -13326,7 +13335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20">
       <c r="A348" t="s">
         <v>249</v>
       </c>
@@ -13346,7 +13355,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20">
       <c r="A349" t="s">
         <v>249</v>
       </c>
@@ -13366,7 +13375,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20">
       <c r="A350" t="s">
         <v>249</v>
       </c>
@@ -13386,7 +13395,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20">
       <c r="A351" t="s">
         <v>250</v>
       </c>
@@ -13406,7 +13415,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20">
       <c r="A352" t="s">
         <v>250</v>
       </c>
@@ -13426,7 +13435,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20">
       <c r="A353" t="s">
         <v>250</v>
       </c>
@@ -13446,7 +13455,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20">
       <c r="A354" t="s">
         <v>251</v>
       </c>
@@ -13457,7 +13466,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20">
       <c r="A355" t="s">
         <v>252</v>
       </c>
@@ -13468,7 +13477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20">
       <c r="A356" t="s">
         <v>253</v>
       </c>
@@ -13479,7 +13488,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20">
       <c r="A357" t="s">
         <v>254</v>
       </c>
@@ -13499,7 +13508,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20">
       <c r="A358" t="s">
         <v>254</v>
       </c>
@@ -13519,7 +13528,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20">
       <c r="A359" t="s">
         <v>254</v>
       </c>
@@ -13539,7 +13548,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20">
       <c r="A360" t="s">
         <v>255</v>
       </c>
@@ -13550,7 +13559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20">
       <c r="A361" t="s">
         <v>256</v>
       </c>
@@ -13561,7 +13570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20">
       <c r="A362" t="s">
         <v>257</v>
       </c>
@@ -13581,7 +13590,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20">
       <c r="A363" t="s">
         <v>257</v>
       </c>
@@ -13601,7 +13610,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20">
       <c r="A364" t="s">
         <v>257</v>
       </c>
@@ -13621,7 +13630,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20">
       <c r="A365" t="s">
         <v>258</v>
       </c>
@@ -13641,7 +13650,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20">
       <c r="A366" t="s">
         <v>258</v>
       </c>
@@ -13661,7 +13670,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20">
       <c r="A367" t="s">
         <v>258</v>
       </c>
@@ -13681,7 +13690,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20">
       <c r="A368" t="s">
         <v>259</v>
       </c>
@@ -13701,7 +13710,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:20">
       <c r="A369" t="s">
         <v>259</v>
       </c>
@@ -13721,7 +13730,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20">
       <c r="A370" t="s">
         <v>259</v>
       </c>
@@ -13741,7 +13750,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:20">
       <c r="A371" t="s">
         <v>260</v>
       </c>
@@ -13761,7 +13770,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20">
       <c r="A372" t="s">
         <v>260</v>
       </c>
@@ -13781,7 +13790,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:20">
       <c r="A373" t="s">
         <v>260</v>
       </c>
@@ -13801,7 +13810,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20">
       <c r="A374" t="s">
         <v>261</v>
       </c>
@@ -13821,7 +13830,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:20">
       <c r="A375" t="s">
         <v>261</v>
       </c>
@@ -13841,7 +13850,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20">
       <c r="A376" t="s">
         <v>261</v>
       </c>
@@ -13861,7 +13870,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:20">
       <c r="A377" t="s">
         <v>262</v>
       </c>
@@ -13872,7 +13881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20">
       <c r="A378" t="s">
         <v>263</v>
       </c>
@@ -13883,7 +13892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:20">
       <c r="A379" t="s">
         <v>264</v>
       </c>
@@ -13903,7 +13912,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20">
       <c r="A380" t="s">
         <v>264</v>
       </c>
@@ -13923,7 +13932,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:20">
       <c r="A381" t="s">
         <v>264</v>
       </c>
@@ -13943,7 +13952,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20">
       <c r="A382" t="s">
         <v>265</v>
       </c>
@@ -13954,7 +13963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:20">
       <c r="A383" t="s">
         <v>266</v>
       </c>
@@ -13965,7 +13974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20">
       <c r="A384" t="s">
         <v>267</v>
       </c>
@@ -13985,7 +13994,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20">
       <c r="A385" t="s">
         <v>267</v>
       </c>
@@ -14005,7 +14014,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20">
       <c r="A386" t="s">
         <v>267</v>
       </c>
@@ -14025,7 +14034,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20">
       <c r="A387" t="s">
         <v>268</v>
       </c>
@@ -14045,7 +14054,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20">
       <c r="A388" t="s">
         <v>268</v>
       </c>
@@ -14065,7 +14074,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20">
       <c r="A389" t="s">
         <v>268</v>
       </c>
@@ -14085,7 +14094,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20">
       <c r="A390" t="s">
         <v>269</v>
       </c>
@@ -14096,7 +14105,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20">
       <c r="A391" t="s">
         <v>270</v>
       </c>
@@ -14116,7 +14125,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20">
       <c r="A392" t="s">
         <v>270</v>
       </c>
@@ -14136,7 +14145,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20">
       <c r="A393" t="s">
         <v>270</v>
       </c>
@@ -14156,7 +14165,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20">
       <c r="A394" t="s">
         <v>271</v>
       </c>
@@ -14167,7 +14176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20">
       <c r="A395" t="s">
         <v>272</v>
       </c>
@@ -14187,7 +14196,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20">
       <c r="A396" t="s">
         <v>272</v>
       </c>
@@ -14207,7 +14216,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20">
       <c r="A397" t="s">
         <v>272</v>
       </c>
@@ -14227,7 +14236,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20">
       <c r="A398" t="s">
         <v>273</v>
       </c>
@@ -14238,7 +14247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20">
       <c r="A399" t="s">
         <v>274</v>
       </c>
@@ -14249,7 +14258,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20">
       <c r="A400" t="s">
         <v>275</v>
       </c>
@@ -14269,7 +14278,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20">
       <c r="A401" t="s">
         <v>275</v>
       </c>
@@ -14289,7 +14298,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20">
       <c r="A402" t="s">
         <v>275</v>
       </c>
@@ -14309,7 +14318,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20">
       <c r="A403" t="s">
         <v>276</v>
       </c>
@@ -14329,7 +14338,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:20">
       <c r="A404" t="s">
         <v>276</v>
       </c>
@@ -14349,7 +14358,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20">
       <c r="A405" t="s">
         <v>276</v>
       </c>
@@ -14369,7 +14378,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:20">
       <c r="A406" t="s">
         <v>277</v>
       </c>
@@ -14389,7 +14398,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:20">
       <c r="A407" t="s">
         <v>277</v>
       </c>
@@ -14409,7 +14418,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20">
       <c r="A408" t="s">
         <v>277</v>
       </c>
@@ -14429,7 +14438,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20">
       <c r="A409" t="s">
         <v>278</v>
       </c>
@@ -14449,7 +14458,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20">
       <c r="A410" t="s">
         <v>278</v>
       </c>
@@ -14469,7 +14478,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20">
       <c r="A411" t="s">
         <v>278</v>
       </c>
@@ -14489,7 +14498,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20">
       <c r="A412" t="s">
         <v>279</v>
       </c>
@@ -14509,7 +14518,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20">
       <c r="A413" t="s">
         <v>279</v>
       </c>
@@ -14529,7 +14538,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20">
       <c r="A414" t="s">
         <v>279</v>
       </c>
@@ -14562,15 +14571,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -14584,7 +14593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -14596,7 +14605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -14608,7 +14617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14620,7 +14629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -14632,7 +14641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -14644,7 +14653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -14656,7 +14665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -14668,7 +14677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -14680,7 +14689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -14692,7 +14701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -14704,7 +14713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -14716,7 +14725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -14728,7 +14737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -14740,7 +14749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -14752,7 +14761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -14764,7 +14773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -14776,7 +14785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -14788,7 +14797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -14800,7 +14809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -14812,7 +14821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -14824,7 +14833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -14836,7 +14845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -14848,7 +14857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -14860,7 +14869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -14872,7 +14881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>359</v>
       </c>
@@ -14886,7 +14895,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>356</v>
       </c>
@@ -14900,7 +14909,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -14914,7 +14923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -14928,7 +14937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -14942,7 +14951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -14956,7 +14965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -14970,7 +14979,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -14984,7 +14993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -14998,7 +15007,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -15012,7 +15021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -15026,7 +15035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>363</v>
       </c>
@@ -15040,7 +15049,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>362</v>
       </c>
@@ -15061,23 +15070,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C7E77-FF0A-E84A-99FE-DC85AB833D10}">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" customWidth="1"/>
     <col min="3" max="3" width="37" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" style="24" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="49.6640625" style="11" customWidth="1"/>
     <col min="8" max="8" width="75.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="27" t="s">
         <v>733</v>
       </c>
@@ -15085,7 +15094,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="177" customHeight="1">
       <c r="B2" s="16" t="s">
         <v>565</v>
       </c>
@@ -15096,7 +15105,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="76.95" customHeight="1">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="12" t="s">
@@ -15106,15 +15115,15 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="C6" s="13" t="s">
         <v>368</v>
       </c>
@@ -15137,7 +15146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="C7" s="11" t="s">
         <v>369</v>
       </c>
@@ -15160,7 +15169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="C8" s="13" t="s">
         <v>370</v>
       </c>
@@ -15183,7 +15192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="C9" s="13" t="s">
         <v>371</v>
       </c>
@@ -15206,7 +15215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="C10" s="13" t="s">
         <v>372</v>
       </c>
@@ -15229,7 +15238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="C11" s="13" t="s">
         <v>373</v>
       </c>
@@ -15252,7 +15261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="C12" s="13" t="s">
         <v>374</v>
       </c>
@@ -15275,7 +15284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="C13" s="13" t="s">
         <v>375</v>
       </c>
@@ -15298,7 +15307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="C14" s="13" t="s">
         <v>376</v>
       </c>
@@ -15321,7 +15330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="C15" s="13" t="s">
         <v>377</v>
       </c>
@@ -15344,7 +15353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="C16" s="13" t="s">
         <v>378</v>
       </c>
@@ -15367,7 +15376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9">
       <c r="C17" s="13" t="s">
         <v>379</v>
       </c>
@@ -15390,7 +15399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9">
       <c r="C18" s="13" t="s">
         <v>380</v>
       </c>
@@ -15413,7 +15422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9">
       <c r="C19" s="13" t="s">
         <v>381</v>
       </c>
@@ -15436,7 +15445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9">
       <c r="C20" s="13" t="s">
         <v>382</v>
       </c>
@@ -15459,7 +15468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9">
       <c r="C21" s="13" t="s">
         <v>383</v>
       </c>
@@ -15482,7 +15491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9">
       <c r="C22" s="13" t="s">
         <v>384</v>
       </c>
@@ -15505,7 +15514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9">
       <c r="C23" s="13" t="s">
         <v>385</v>
       </c>
@@ -15528,7 +15537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9">
       <c r="C24" s="13" t="s">
         <v>386</v>
       </c>
@@ -15551,7 +15560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9">
       <c r="C25" s="13" t="s">
         <v>387</v>
       </c>
@@ -15574,7 +15583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9">
       <c r="C26" s="13" t="s">
         <v>388</v>
       </c>
@@ -15597,7 +15606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:9">
       <c r="C27" s="13" t="s">
         <v>389</v>
       </c>
@@ -15620,7 +15629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9">
       <c r="C28" s="13" t="s">
         <v>390</v>
       </c>
@@ -15643,7 +15652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9">
       <c r="C29" s="13" t="s">
         <v>391</v>
       </c>
@@ -15666,7 +15675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9">
       <c r="C30" s="13" t="s">
         <v>392</v>
       </c>
@@ -15689,7 +15698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:9">
       <c r="C31" s="13" t="s">
         <v>393</v>
       </c>
@@ -15712,7 +15721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9">
       <c r="C32" s="13" t="s">
         <v>394</v>
       </c>
@@ -15735,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9">
       <c r="C33" s="13" t="s">
         <v>395</v>
       </c>
@@ -15758,7 +15767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9">
       <c r="C34" s="13" t="s">
         <v>396</v>
       </c>
@@ -15781,7 +15790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9">
       <c r="C35" s="13" t="s">
         <v>397</v>
       </c>
@@ -15804,7 +15813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:9">
       <c r="C36" s="13" t="s">
         <v>398</v>
       </c>
@@ -15827,7 +15836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9">
       <c r="C37" s="13" t="s">
         <v>399</v>
       </c>
@@ -15850,7 +15859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9">
       <c r="C38" s="13" t="s">
         <v>400</v>
       </c>
@@ -15873,7 +15882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:9">
       <c r="C39" s="13" t="s">
         <v>401</v>
       </c>
@@ -15896,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9">
       <c r="C40" s="13" t="s">
         <v>402</v>
       </c>
@@ -15919,7 +15928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9">
       <c r="C41" s="13" t="s">
         <v>403</v>
       </c>
@@ -15942,7 +15951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9">
       <c r="C42" s="13" t="s">
         <v>404</v>
       </c>
@@ -15965,7 +15974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:9">
       <c r="C43" s="13" t="s">
         <v>405</v>
       </c>
@@ -15988,7 +15997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:9">
       <c r="C44" s="13" t="s">
         <v>406</v>
       </c>
@@ -16011,7 +16020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9">
       <c r="C45" s="13" t="s">
         <v>407</v>
       </c>
@@ -16034,7 +16043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:9">
       <c r="C46" s="13" t="s">
         <v>408</v>
       </c>
@@ -16057,7 +16066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:9">
       <c r="C47" s="13" t="s">
         <v>409</v>
       </c>
@@ -16080,7 +16089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:9">
       <c r="C48" s="13" t="s">
         <v>410</v>
       </c>
@@ -16103,7 +16112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9">
       <c r="C49" s="13" t="s">
         <v>411</v>
       </c>
@@ -16126,7 +16135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:9">
       <c r="C50" s="13" t="s">
         <v>412</v>
       </c>
@@ -16149,7 +16158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:9">
       <c r="C51" s="13" t="s">
         <v>413</v>
       </c>
@@ -16172,7 +16181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:9">
       <c r="C52" s="13" t="s">
         <v>414</v>
       </c>
@@ -16195,7 +16204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:9">
       <c r="C53" s="13" t="s">
         <v>415</v>
       </c>
@@ -16218,7 +16227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:9">
       <c r="C54" s="13" t="s">
         <v>416</v>
       </c>
@@ -16241,7 +16250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:9">
       <c r="C55" s="13" t="s">
         <v>417</v>
       </c>
@@ -16264,7 +16273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:9">
       <c r="C56" s="13" t="s">
         <v>418</v>
       </c>
@@ -16287,7 +16296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:9">
       <c r="C57" s="13" t="s">
         <v>419</v>
       </c>
@@ -16310,7 +16319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:9">
       <c r="C58" s="13" t="s">
         <v>420</v>
       </c>
@@ -16333,7 +16342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:9">
       <c r="C59" s="13" t="s">
         <v>421</v>
       </c>
@@ -16356,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:9">
       <c r="C60" s="13" t="s">
         <v>422</v>
       </c>
@@ -16379,7 +16388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:9">
       <c r="C61" s="13" t="s">
         <v>423</v>
       </c>
@@ -16402,7 +16411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:9">
       <c r="C62" s="13" t="s">
         <v>424</v>
       </c>
@@ -16425,7 +16434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:9">
       <c r="C63" s="13" t="s">
         <v>425</v>
       </c>
@@ -16448,7 +16457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:9">
       <c r="C64" s="13" t="s">
         <v>426</v>
       </c>
@@ -16471,7 +16480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9">
       <c r="C65" s="13" t="s">
         <v>427</v>
       </c>
@@ -16494,7 +16503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9">
       <c r="C66" s="13" t="s">
         <v>428</v>
       </c>
@@ -16517,7 +16526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9">
       <c r="C67" s="13" t="s">
         <v>429</v>
       </c>
@@ -16540,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:9">
       <c r="C68" s="13" t="s">
         <v>430</v>
       </c>
@@ -16563,7 +16572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:9">
       <c r="C69" s="13" t="s">
         <v>431</v>
       </c>
@@ -16586,7 +16595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:9">
       <c r="C70" s="13" t="s">
         <v>432</v>
       </c>
@@ -16609,7 +16618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:9">
       <c r="C71" s="13" t="s">
         <v>433</v>
       </c>
@@ -16632,7 +16641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:9">
       <c r="C72" s="13" t="s">
         <v>434</v>
       </c>
@@ -16655,7 +16664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:9">
       <c r="C73" s="13" t="s">
         <v>435</v>
       </c>
@@ -16678,7 +16687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:9">
       <c r="C74" s="13" t="s">
         <v>436</v>
       </c>
@@ -16701,7 +16710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:9">
       <c r="C75" s="13" t="s">
         <v>437</v>
       </c>
@@ -16724,7 +16733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:9">
       <c r="C76" s="13" t="s">
         <v>438</v>
       </c>
@@ -16747,7 +16756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:9">
       <c r="C77" s="13" t="s">
         <v>439</v>
       </c>
@@ -16770,7 +16779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:9">
       <c r="C78" s="13" t="s">
         <v>440</v>
       </c>
@@ -16793,7 +16802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:9">
       <c r="C79" s="13" t="s">
         <v>441</v>
       </c>
@@ -16816,7 +16825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:9">
       <c r="C80" s="13" t="s">
         <v>442</v>
       </c>
@@ -16839,7 +16848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:9">
       <c r="C81" s="13" t="s">
         <v>443</v>
       </c>
@@ -16862,7 +16871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:9">
       <c r="C82" s="13" t="s">
         <v>444</v>
       </c>
@@ -16885,7 +16894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:9">
       <c r="C83" s="13" t="s">
         <v>445</v>
       </c>
@@ -16908,7 +16917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:9">
       <c r="C84" s="13" t="s">
         <v>446</v>
       </c>
@@ -16931,7 +16940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:9">
       <c r="C85" s="13" t="s">
         <v>447</v>
       </c>
@@ -16954,7 +16963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:9">
       <c r="C86" s="13" t="s">
         <v>448</v>
       </c>
@@ -16977,7 +16986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:9">
       <c r="C87" s="13" t="s">
         <v>449</v>
       </c>
@@ -17000,7 +17009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:9">
       <c r="C88" s="13" t="s">
         <v>450</v>
       </c>
@@ -17023,7 +17032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:9">
       <c r="C89" s="13" t="s">
         <v>451</v>
       </c>
@@ -17046,7 +17055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:9">
       <c r="C90" s="13" t="s">
         <v>452</v>
       </c>
@@ -17069,7 +17078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:9">
       <c r="C91" s="13" t="s">
         <v>453</v>
       </c>
@@ -17092,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:9">
       <c r="C92" s="13" t="s">
         <v>454</v>
       </c>
@@ -17115,7 +17124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:9">
       <c r="C93" s="13" t="s">
         <v>455</v>
       </c>
@@ -17138,7 +17147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:9">
       <c r="C94" s="13" t="s">
         <v>456</v>
       </c>
@@ -17161,7 +17170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:9">
       <c r="C95" s="13" t="s">
         <v>457</v>
       </c>
@@ -17184,7 +17193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:9">
       <c r="C96" s="13" t="s">
         <v>458</v>
       </c>
@@ -17207,7 +17216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:9">
       <c r="C97" s="13" t="s">
         <v>460</v>
       </c>
@@ -17228,7 +17237,7 @@
       </c>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:9">
       <c r="C98" s="13" t="s">
         <v>461</v>
       </c>
@@ -17251,7 +17260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:9">
       <c r="C99" s="13" t="s">
         <v>462</v>
       </c>
@@ -17274,7 +17283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:9">
       <c r="C100" s="13" t="s">
         <v>463</v>
       </c>
@@ -17297,7 +17306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:9">
       <c r="C101" s="13" t="s">
         <v>464</v>
       </c>
@@ -17320,7 +17329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:9">
       <c r="C102" s="13" t="s">
         <v>465</v>
       </c>
@@ -17343,7 +17352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:9">
       <c r="C103" s="13" t="s">
         <v>466</v>
       </c>
@@ -17366,7 +17375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:9">
       <c r="C104" s="13" t="s">
         <v>467</v>
       </c>
@@ -17389,7 +17398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:9">
       <c r="C105" s="13" t="s">
         <v>468</v>
       </c>
@@ -17412,7 +17421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:9">
       <c r="C106" s="13" t="s">
         <v>469</v>
       </c>
@@ -17435,7 +17444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:9">
       <c r="C107" s="13" t="s">
         <v>470</v>
       </c>
@@ -17458,7 +17467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:9">
       <c r="C108" s="13" t="s">
         <v>471</v>
       </c>
@@ -17481,7 +17490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:9">
       <c r="C109" s="13" t="s">
         <v>472</v>
       </c>
@@ -17504,7 +17513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:9">
       <c r="C110" s="13" t="s">
         <v>473</v>
       </c>
@@ -17527,7 +17536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:9">
       <c r="C111" s="13" t="s">
         <v>474</v>
       </c>
@@ -17550,7 +17559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:9">
       <c r="C112" s="13" t="s">
         <v>475</v>
       </c>
@@ -17573,7 +17582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:9">
       <c r="C113" s="13" t="s">
         <v>476</v>
       </c>
@@ -17596,7 +17605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:9">
       <c r="C114" s="13" t="s">
         <v>477</v>
       </c>
@@ -17619,7 +17628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:9">
       <c r="C115" s="13" t="s">
         <v>478</v>
       </c>
@@ -17642,7 +17651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:9">
       <c r="C116" s="13" t="s">
         <v>479</v>
       </c>
@@ -17665,7 +17674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:9">
       <c r="C117" s="13" t="s">
         <v>480</v>
       </c>
@@ -17688,7 +17697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:9">
       <c r="C118" s="13" t="s">
         <v>481</v>
       </c>
@@ -17711,7 +17720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:9">
       <c r="C119" s="13" t="s">
         <v>482</v>
       </c>
@@ -17734,7 +17743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:9">
       <c r="C120" s="13" t="s">
         <v>483</v>
       </c>
@@ -17757,7 +17766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:9">
       <c r="C121" s="13" t="s">
         <v>484</v>
       </c>
@@ -17780,7 +17789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:9">
       <c r="C122" s="13" t="s">
         <v>485</v>
       </c>
@@ -17803,7 +17812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:9">
       <c r="C123" s="13" t="s">
         <v>486</v>
       </c>
@@ -17826,7 +17835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:9">
       <c r="C124" s="13" t="s">
         <v>487</v>
       </c>
@@ -17849,7 +17858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:9">
       <c r="C125" s="13" t="s">
         <v>488</v>
       </c>
@@ -17872,7 +17881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:9">
       <c r="C126" s="13" t="s">
         <v>489</v>
       </c>
@@ -17895,7 +17904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:9">
       <c r="C127" s="13" t="s">
         <v>490</v>
       </c>
@@ -17918,7 +17927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:9">
       <c r="C128" s="13" t="s">
         <v>491</v>
       </c>
@@ -17941,7 +17950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:9">
       <c r="C129" s="13" t="s">
         <v>492</v>
       </c>
@@ -17964,7 +17973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:9">
       <c r="C130" s="13" t="s">
         <v>493</v>
       </c>
@@ -17987,7 +17996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:9">
       <c r="C131" s="13" t="s">
         <v>494</v>
       </c>
@@ -18010,7 +18019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:9">
       <c r="C132" s="13" t="s">
         <v>495</v>
       </c>
@@ -18033,7 +18042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:9">
       <c r="C133" s="13" t="s">
         <v>496</v>
       </c>
@@ -18056,7 +18065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:9">
       <c r="C134" s="13" t="s">
         <v>497</v>
       </c>
@@ -18079,7 +18088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:9">
       <c r="C135" s="13" t="s">
         <v>498</v>
       </c>
@@ -18102,7 +18111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:9">
       <c r="C136" s="13" t="s">
         <v>499</v>
       </c>
@@ -18125,7 +18134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:9">
       <c r="C137" s="13" t="s">
         <v>500</v>
       </c>
@@ -18148,7 +18157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:9">
       <c r="C138" s="13" t="s">
         <v>501</v>
       </c>
@@ -18171,7 +18180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:9">
       <c r="C139" s="13" t="s">
         <v>502</v>
       </c>
@@ -18192,7 +18201,7 @@
       </c>
       <c r="I139" s="14"/>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:9">
       <c r="C140" s="13" t="s">
         <v>503</v>
       </c>
@@ -18213,7 +18222,7 @@
       </c>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:9">
       <c r="C141" s="13" t="s">
         <v>504</v>
       </c>
@@ -18236,7 +18245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:9">
       <c r="C142" s="13" t="s">
         <v>505</v>
       </c>
@@ -18259,7 +18268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:9">
       <c r="C143" s="13" t="s">
         <v>506</v>
       </c>
@@ -18282,7 +18291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:9">
       <c r="C144" s="13" t="s">
         <v>507</v>
       </c>
@@ -18305,7 +18314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:9">
       <c r="C145" s="13" t="s">
         <v>508</v>
       </c>
@@ -18328,7 +18337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:9">
       <c r="C146" s="13" t="s">
         <v>509</v>
       </c>
@@ -18351,7 +18360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:9">
       <c r="C147" s="13" t="s">
         <v>510</v>
       </c>
@@ -18374,7 +18383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:9">
       <c r="C148" s="13" t="s">
         <v>511</v>
       </c>
@@ -18397,7 +18406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:9">
       <c r="C149" s="13" t="s">
         <v>512</v>
       </c>
@@ -18420,7 +18429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:9">
       <c r="C150" s="13" t="s">
         <v>513</v>
       </c>
@@ -18443,7 +18452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:9">
       <c r="C151" s="13" t="s">
         <v>514</v>
       </c>
@@ -18466,7 +18475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:9">
       <c r="C152" s="13" t="s">
         <v>515</v>
       </c>
@@ -18489,7 +18498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:9">
       <c r="C153" s="13" t="s">
         <v>516</v>
       </c>
@@ -18512,7 +18521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:9">
       <c r="C154" s="13" t="s">
         <v>517</v>
       </c>
@@ -18535,7 +18544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:9">
       <c r="C155" s="13" t="s">
         <v>518</v>
       </c>
@@ -18558,7 +18567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:9">
       <c r="C156" s="13" t="s">
         <v>519</v>
       </c>
@@ -18581,7 +18590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:9">
       <c r="C157" s="13" t="s">
         <v>520</v>
       </c>
@@ -18604,7 +18613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:9">
       <c r="C158" s="13" t="s">
         <v>521</v>
       </c>
@@ -18627,7 +18636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:9">
       <c r="C159" s="13" t="s">
         <v>522</v>
       </c>
@@ -18650,7 +18659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:9">
       <c r="C160" s="13" t="s">
         <v>523</v>
       </c>
@@ -18673,7 +18682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:9">
       <c r="C161" s="13" t="s">
         <v>524</v>
       </c>
@@ -18696,7 +18705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:9">
       <c r="C162" s="13" t="s">
         <v>525</v>
       </c>
@@ -18719,7 +18728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:9">
       <c r="C163" s="13" t="s">
         <v>526</v>
       </c>
@@ -18742,7 +18751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:9">
       <c r="C164" s="13" t="s">
         <v>527</v>
       </c>
@@ -18765,7 +18774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:9">
       <c r="C165" s="13" t="s">
         <v>528</v>
       </c>
@@ -18788,7 +18797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:9">
       <c r="C166" s="13" t="s">
         <v>529</v>
       </c>
@@ -18811,7 +18820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:9">
       <c r="C167" s="13" t="s">
         <v>530</v>
       </c>
@@ -18834,7 +18843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:9">
       <c r="C168" s="13" t="s">
         <v>531</v>
       </c>
@@ -18857,7 +18866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:9">
       <c r="C169" s="13" t="s">
         <v>532</v>
       </c>
@@ -18880,7 +18889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:9">
       <c r="C170" s="13" t="s">
         <v>533</v>
       </c>
@@ -18903,7 +18912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:9">
       <c r="C171" s="13" t="s">
         <v>534</v>
       </c>
@@ -18926,7 +18935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:9">
       <c r="C172" s="13" t="s">
         <v>535</v>
       </c>
@@ -18949,7 +18958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:9">
       <c r="C173" s="13" t="s">
         <v>536</v>
       </c>
@@ -18972,7 +18981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:9">
       <c r="C174" s="13" t="s">
         <v>537</v>
       </c>
@@ -18995,7 +19004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:9">
       <c r="C175" s="13" t="s">
         <v>538</v>
       </c>
@@ -19018,7 +19027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:9">
       <c r="C176" s="13" t="s">
         <v>539</v>
       </c>
@@ -19041,7 +19050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:9">
       <c r="C177" s="13" t="s">
         <v>540</v>
       </c>
@@ -19064,7 +19073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:9">
       <c r="C178" s="13" t="s">
         <v>541</v>
       </c>
@@ -19087,7 +19096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:9">
       <c r="C179" s="13" t="s">
         <v>542</v>
       </c>
@@ -19110,7 +19119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:9">
       <c r="C180" s="13" t="s">
         <v>543</v>
       </c>
@@ -19133,7 +19142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:9">
       <c r="C181" s="13" t="s">
         <v>544</v>
       </c>
@@ -19156,7 +19165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:9">
       <c r="C182" s="13" t="s">
         <v>545</v>
       </c>
@@ -19179,7 +19188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:9">
       <c r="C183" s="13" t="s">
         <v>546</v>
       </c>
@@ -19202,7 +19211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:9">
       <c r="C184" s="13" t="s">
         <v>547</v>
       </c>
@@ -19225,7 +19234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:9">
       <c r="C185" s="13" t="s">
         <v>548</v>
       </c>
@@ -19248,7 +19257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:9">
       <c r="C186" s="13" t="s">
         <v>549</v>
       </c>
@@ -19271,7 +19280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:9">
       <c r="C187" s="13" t="s">
         <v>550</v>
       </c>
@@ -19294,7 +19303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:9" ht="15" customHeight="1">
       <c r="C188" s="13" t="s">
         <v>551</v>
       </c>
@@ -19317,7 +19326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:9">
       <c r="C189" s="13" t="s">
         <v>552</v>
       </c>
@@ -19340,7 +19349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:9">
       <c r="C190" s="13" t="s">
         <v>553</v>
       </c>
@@ -19363,7 +19372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:9">
       <c r="C191" s="13" t="s">
         <v>554</v>
       </c>
@@ -19386,7 +19395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:9">
       <c r="C192" s="13" t="s">
         <v>555</v>
       </c>
@@ -19409,7 +19418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:9">
       <c r="C193" s="13" t="s">
         <v>556</v>
       </c>
@@ -19432,7 +19441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:9">
       <c r="C194" s="13" t="s">
         <v>557</v>
       </c>
@@ -19455,7 +19464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:9">
       <c r="C195" s="13" t="s">
         <v>558</v>
       </c>
@@ -19478,7 +19487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:9">
       <c r="C196" s="13" t="s">
         <v>559</v>
       </c>
@@ -19501,7 +19510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:9">
       <c r="C197" s="13" t="s">
         <v>560</v>
       </c>
@@ -19524,7 +19533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:9">
       <c r="C198" s="13" t="s">
         <v>561</v>
       </c>
@@ -19547,7 +19556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:9">
       <c r="C199" s="13" t="s">
         <v>562</v>
       </c>
@@ -19570,7 +19579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:9">
       <c r="C200" s="13" t="s">
         <v>563</v>
       </c>
@@ -19593,7 +19602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:9">
       <c r="D201" s="6"/>
       <c r="E201" s="21"/>
       <c r="F201" s="23"/>
@@ -19601,7 +19610,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:4">
       <c r="D229" s="10"/>
     </row>
   </sheetData>
@@ -19821,6 +19830,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -19992,22 +20016,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20023,28 +20056,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>